--- a/Restauranger.xlsx
+++ b/Restauranger.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44ce7b1427898aaf/Skrivbord/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarlO\OneDrive\Skrivbord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF88663E-F3E8-4166-BB82-A1952B519E69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{AF88663E-F3E8-4166-BB82-A1952B519E69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{676B6C12-20E2-477B-A65A-23727F8BF77D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{9D37C6FE-80F3-417A-8620-820CF7C1148E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9D37C6FE-80F3-417A-8620-820CF7C1148E}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
   <si>
     <t>Månad</t>
   </si>
@@ -340,7 +339,10 @@
     <t>‑8,9</t>
   </si>
   <si>
-    <t>Personalrestauranger</t>
+    <t>Trafiknära Data</t>
+  </si>
+  <si>
+    <t>Personal</t>
   </si>
 </sst>
 </file>
@@ -348,7 +350,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -639,6 +641,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -656,12 +664,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1099,7 +1101,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
@@ -1641,7 +1643,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
@@ -2183,7 +2185,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
@@ -2733,7 +2735,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
@@ -3430,7 +3432,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sv-SE"/>
-              <a:t>snabbmatsrestaurang</a:t>
+              <a:t>snabbmats-restaurang</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3817,7 +3819,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
@@ -3955,6 +3957,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Trafiknära</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3968,12 +3992,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3993,162 +4014,298 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Blad2!$A$1:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>‑5,2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13,9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14,4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8,2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3,4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>‑8,8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>‑2,6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>‑0,1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1,9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3,6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9,3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10,6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6,4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9,5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8,1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>‑2,0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5,9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10,0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3,3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5,0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4,2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4,0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1,5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7,3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8,4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9,5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9,2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1,6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>‑4,9</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>‑5,0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>‑7,0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>‑2,8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11,9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>17,4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10,5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8,8</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6,1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>‑9,6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>‑5,8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>‑4,2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>‑6,6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$4:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>2008K01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008K02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008K03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008K04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009K01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009K02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009K03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009K04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010K01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010K02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010K03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010K04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2011K01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011K02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011K03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011K04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012K01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012K02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2012K03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012K04</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013K01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2013K02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2013K03</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013K04</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014K01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2014K02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2014K03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2014K04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2015K01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015K02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015K03</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2015K04</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2016K01</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2016K02</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016K03</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2016K04</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2017K01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017K02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2017K03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2017K04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2018K01</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2018K02</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2018K03</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2018K04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad2!$A$42:$A$44</c:f>
+              <c:f>Blad1!$H$66:$H$109</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-9.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-6.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="42">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="43">
                   <c:v>11.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4157,7 +4314,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3530-4C8B-BC91-CD631317FFB9}"/>
+              <c16:uniqueId val="{00000000-5E6E-48A0-9054-F3BD51C9B7EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4169,28 +4326,47 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="737549944"/>
-        <c:axId val="737553144"/>
+        <c:axId val="764813256"/>
+        <c:axId val="764811976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="737549944"/>
+        <c:axId val="764813256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="lt1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4201,12 +4377,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4216,7 +4389,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737553144"/>
+        <c:crossAx val="764811976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4224,27 +4397,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="737553144"/>
+        <c:axId val="764811976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4262,10 +4421,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4275,7 +4431,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737549944"/>
+        <c:crossAx val="764813256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4300,14 +4456,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="accent1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4346,6 +4499,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Personal-restauranger</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4359,12 +4534,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4384,163 +4556,299 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Blad2!$O$1:$O$43</c:f>
-              <c:strCache>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>‑4,4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5,7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>‑1,1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>‑0,2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3,4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>‑4,9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>‑1,0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3,5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8,6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4,3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4,8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8,1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9,1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2,5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>‑12,3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>‑0,5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>‑5,3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>‑3,9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>‑7,4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>‑7,3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>‑3,3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>‑0,3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14,3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12,4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10,7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5,6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0,7</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3,2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>‑2,4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>‑1,9</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>‑8,1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>‑8,5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>‑4,4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>‑6,9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>‑0,5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>‑3,3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>‑4,4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>‑8,1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>‑10,0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$4:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>2008K01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008K02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008K03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008K04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009K01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009K02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009K03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009K04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010K01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010K02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010K03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010K04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2011K01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011K02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011K03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011K04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012K01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012K02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2012K03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012K04</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013K01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2013K02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2013K03</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013K04</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014K01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2014K02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2014K03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2014K04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2015K01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015K02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015K03</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2015K04</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2016K01</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2016K02</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016K03</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2016K04</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2017K01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017K02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2017K03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2017K04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2018K01</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2018K02</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2018K03</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2018K04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad2!$O$44</c:f>
+              <c:f>Blad1!$D$66:$D$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-12.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-8.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4548,7 +4856,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-87D2-4206-BE7A-9C1653238887}"/>
+              <c16:uniqueId val="{00000000-5EFC-444C-96E1-1A6C561AF219}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4560,28 +4868,47 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="728547728"/>
-        <c:axId val="728549008"/>
+        <c:axId val="733950672"/>
+        <c:axId val="733950352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="728547728"/>
+        <c:axId val="733950672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="lt1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4592,12 +4919,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4607,7 +4931,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728549008"/>
+        <c:crossAx val="733950352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4615,26 +4939,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="728549008"/>
+        <c:axId val="733950352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4653,10 +4963,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4666,7 +4973,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728547728"/>
+        <c:crossAx val="733950672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4691,14 +4998,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="accent1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -8217,59 +8521,53 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -8281,22 +8579,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8304,10 +8598,7 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -8318,71 +8609,87 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
           <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -8391,10 +8698,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8406,31 +8713,30 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -8439,15 +8745,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8458,37 +8764,51 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -8496,28 +8816,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8525,59 +8840,62 @@
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -8586,57 +8904,67 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -8645,28 +8973,25 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8675,15 +9000,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -8691,13 +9015,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8708,10 +9034,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -8720,72 +9043,60 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -8797,22 +9108,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8820,10 +9127,7 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -8834,71 +9138,87 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
           <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -8907,10 +9227,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8922,31 +9242,30 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -8955,15 +9274,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8974,37 +9293,51 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -9012,28 +9345,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9041,59 +9369,62 @@
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -9102,57 +9433,67 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -9161,28 +9502,25 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -9191,15 +9529,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -9207,13 +9544,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -9224,10 +9563,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -9236,14 +9572,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -9466,30 +9796,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="31" name="Diagram 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB1228B-81D4-4205-8CA3-0D468CCBCB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F310A19-14CB-41A7-A81C-DB143573B73E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9501,7 +9826,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9509,23 +9834,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagram 3">
+        <xdr:cNvPr id="33" name="Diagram 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B682B7-E5A4-4085-B5F7-37888601C61A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502E3B9A-AED6-401B-B446-AAFF51E62A2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9537,7 +9862,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9843,16 +10168,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D2B792-822E-4B8F-A0E3-4F6D34F7F7C6}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I47"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D109" sqref="D65:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -9861,7 +10189,7 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -9881,14 +10209,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="12"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
@@ -9906,12 +10234,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30.75" thickBot="1">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="16"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
@@ -9941,7 +10269,7 @@
       <c r="F4" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="6">
@@ -9970,7 +10298,7 @@
       <c r="F5" s="6">
         <v>5.6</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="11">
         <v>13.9</v>
       </c>
       <c r="H5" s="6">
@@ -9999,7 +10327,7 @@
       <c r="F6" s="6">
         <v>1.6</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="11">
         <v>14.4</v>
       </c>
       <c r="H6" s="6">
@@ -10028,7 +10356,7 @@
       <c r="F7" s="6">
         <v>0.8</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="11">
         <v>8.1999999999999993</v>
       </c>
       <c r="H7" s="6">
@@ -10057,7 +10385,7 @@
       <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="11">
         <v>3.4</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -10086,7 +10414,7 @@
       <c r="F9" s="6">
         <v>0.7</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -10115,7 +10443,7 @@
       <c r="F10" s="6">
         <v>1.7</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -10144,7 +10472,7 @@
       <c r="F11" s="6">
         <v>2.9</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -10173,7 +10501,7 @@
       <c r="F12" s="6">
         <v>2.4</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="11">
         <v>1.9</v>
       </c>
       <c r="H12" s="6">
@@ -10202,7 +10530,7 @@
       <c r="F13" s="6">
         <v>4.3</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="11">
         <v>3.6</v>
       </c>
       <c r="H13" s="6">
@@ -10231,7 +10559,7 @@
       <c r="F14" s="6">
         <v>9.5</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="11">
         <v>9.3000000000000007</v>
       </c>
       <c r="H14" s="6">
@@ -10260,7 +10588,7 @@
       <c r="F15" s="6">
         <v>7.2</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="11">
         <v>10.6</v>
       </c>
       <c r="H15" s="6">
@@ -10289,7 +10617,7 @@
       <c r="F16" s="6">
         <v>7.9</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="11">
         <v>6.4</v>
       </c>
       <c r="H16" s="6">
@@ -10318,7 +10646,7 @@
       <c r="F17" s="6">
         <v>10.3</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="11">
         <v>9.5</v>
       </c>
       <c r="H17" s="6">
@@ -10347,7 +10675,7 @@
       <c r="F18" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="11">
         <v>8.1</v>
       </c>
       <c r="H18" s="6">
@@ -10376,7 +10704,7 @@
       <c r="F19" s="6">
         <v>3.7</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="11" t="s">
         <v>49</v>
       </c>
       <c r="H19" s="6">
@@ -10405,7 +10733,7 @@
       <c r="F20" s="6">
         <v>4.7</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="11">
         <v>5.9</v>
       </c>
       <c r="H20" s="6">
@@ -10434,7 +10762,7 @@
       <c r="F21" s="6">
         <v>3.2</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="11">
         <v>10</v>
       </c>
       <c r="H21" s="6">
@@ -10463,7 +10791,7 @@
       <c r="F22" s="6">
         <v>3.3</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="11">
         <v>3.3</v>
       </c>
       <c r="H22" s="6">
@@ -10492,7 +10820,7 @@
       <c r="F23" s="6">
         <v>6.8</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="11">
         <v>5</v>
       </c>
       <c r="H23" s="6">
@@ -10521,7 +10849,7 @@
       <c r="F24" s="6">
         <v>5.4</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="11">
         <v>4.2</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -10550,7 +10878,7 @@
       <c r="F25" s="6">
         <v>6.9</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="11">
         <v>4</v>
       </c>
       <c r="H25" s="6">
@@ -10579,7 +10907,7 @@
       <c r="F26" s="6">
         <v>7.2</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="11">
         <v>1.5</v>
       </c>
       <c r="H26" s="6">
@@ -10608,7 +10936,7 @@
       <c r="F27" s="6">
         <v>7.1</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="11">
         <v>7.3</v>
       </c>
       <c r="H27" s="6">
@@ -10637,7 +10965,7 @@
       <c r="F28" s="6">
         <v>7.9</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="11">
         <v>8.4</v>
       </c>
       <c r="H28" s="6">
@@ -10666,7 +10994,7 @@
       <c r="F29" s="6">
         <v>5.3</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="11">
         <v>9.5</v>
       </c>
       <c r="H29" s="6">
@@ -10695,7 +11023,7 @@
       <c r="F30" s="6">
         <v>5.5</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="11">
         <v>9.1999999999999993</v>
       </c>
       <c r="H30" s="6">
@@ -10724,7 +11052,7 @@
       <c r="F31" s="6">
         <v>7.3</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="11">
         <v>1.6</v>
       </c>
       <c r="H31" s="6">
@@ -10753,7 +11081,7 @@
       <c r="F32" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="11" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="6">
@@ -10782,7 +11110,7 @@
       <c r="F33" s="6">
         <v>3.2</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H33" s="6">
@@ -10811,7 +11139,7 @@
       <c r="F34" s="6">
         <v>5.2</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H34" s="6">
@@ -10840,7 +11168,7 @@
       <c r="F35" s="6">
         <v>5.6</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H35" s="6">
@@ -10869,7 +11197,7 @@
       <c r="F36" s="6">
         <v>6.5</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="11">
         <v>11.9</v>
       </c>
       <c r="H36" s="6">
@@ -10898,7 +11226,7 @@
       <c r="F37" s="6">
         <v>10.4</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="11">
         <v>17.399999999999999</v>
       </c>
       <c r="H37" s="6">
@@ -10927,7 +11255,7 @@
       <c r="F38" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="11">
         <v>10.5</v>
       </c>
       <c r="H38" s="6">
@@ -10956,7 +11284,7 @@
       <c r="F39" s="6">
         <v>5.5</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="11">
         <v>8.8000000000000007</v>
       </c>
       <c r="H39" s="6">
@@ -10985,7 +11313,7 @@
       <c r="F40" s="6">
         <v>8.4</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="11">
         <v>6.1</v>
       </c>
       <c r="H40" s="6">
@@ -11014,7 +11342,7 @@
       <c r="F41" s="6">
         <v>3.6</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="11" t="s">
         <v>86</v>
       </c>
       <c r="H41" s="6">
@@ -11043,7 +11371,7 @@
       <c r="F42" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="11" t="s">
         <v>89</v>
       </c>
       <c r="H42" s="6">
@@ -11072,7 +11400,7 @@
       <c r="F43" s="6">
         <v>4.7</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="11" t="s">
         <v>91</v>
       </c>
       <c r="H43" s="6">
@@ -11101,7 +11429,7 @@
       <c r="F44" s="6">
         <v>1.8</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="11" t="s">
         <v>93</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -11130,7 +11458,7 @@
       <c r="F45" s="6">
         <v>4.7</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="11">
         <v>15</v>
       </c>
       <c r="H45" s="6" t="s">
@@ -11159,7 +11487,7 @@
       <c r="F46" s="6">
         <v>3.1</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="11">
         <v>12</v>
       </c>
       <c r="H46" s="6" t="s">
@@ -11188,7 +11516,7 @@
       <c r="F47" s="9">
         <v>3.6</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="12">
         <v>11.2</v>
       </c>
       <c r="H47" s="9" t="s">
@@ -11196,6 +11524,454 @@
       </c>
       <c r="I47" s="10" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" ht="15.75" thickBot="1">
+      <c r="D65" t="s">
+        <v>103</v>
+      </c>
+      <c r="H65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C66" s="7"/>
+      <c r="D66">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="G66" s="11"/>
+      <c r="H66">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C67" s="7"/>
+      <c r="D67">
+        <v>5.7</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="H67">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C68" s="7"/>
+      <c r="D68">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="H68">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C69" s="7"/>
+      <c r="D69">
+        <v>-0.2</v>
+      </c>
+      <c r="G69" s="11"/>
+      <c r="H69">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C70" s="7"/>
+      <c r="D70">
+        <v>3.4</v>
+      </c>
+      <c r="G70" s="11"/>
+      <c r="H70">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C71" s="7"/>
+      <c r="D71">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="G71" s="11"/>
+      <c r="H71">
+        <v>-8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C72" s="7"/>
+      <c r="D72">
+        <v>-1</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="H72">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C73" s="7"/>
+      <c r="D73">
+        <v>3.5</v>
+      </c>
+      <c r="G73" s="11"/>
+      <c r="H73">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C74" s="7"/>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C75" s="7"/>
+      <c r="D75">
+        <v>8.6</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C76" s="7"/>
+      <c r="D76">
+        <v>4.3</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="H76">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C77" s="7"/>
+      <c r="D77">
+        <v>4.8</v>
+      </c>
+      <c r="G77" s="11"/>
+      <c r="H77">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C78" s="7"/>
+      <c r="D78">
+        <v>8.1</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C79" s="7"/>
+      <c r="D79">
+        <v>9.1</v>
+      </c>
+      <c r="G79" s="11"/>
+      <c r="H79">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C80" s="7"/>
+      <c r="D80">
+        <v>2.5</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C81" s="7"/>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C82" s="7"/>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="11"/>
+      <c r="H82">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C83" s="7"/>
+      <c r="D83">
+        <v>-12.3</v>
+      </c>
+      <c r="G83" s="11"/>
+      <c r="H83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C84" s="7"/>
+      <c r="D84">
+        <v>-0.5</v>
+      </c>
+      <c r="G84" s="11"/>
+      <c r="H84">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C85" s="7"/>
+      <c r="D85">
+        <v>-5.3</v>
+      </c>
+      <c r="G85" s="11"/>
+      <c r="H85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C86" s="7"/>
+      <c r="D86">
+        <v>-3.9</v>
+      </c>
+      <c r="G86" s="11"/>
+      <c r="H86">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C87" s="7"/>
+      <c r="D87">
+        <v>-7.4</v>
+      </c>
+      <c r="G87" s="11"/>
+      <c r="H87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C88" s="7"/>
+      <c r="D88">
+        <v>-7.3</v>
+      </c>
+      <c r="G88" s="11"/>
+      <c r="H88">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C89" s="7"/>
+      <c r="D89">
+        <v>-3.3</v>
+      </c>
+      <c r="G89" s="11"/>
+      <c r="H89">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C90" s="7"/>
+      <c r="D90">
+        <v>-0.3</v>
+      </c>
+      <c r="G90" s="11"/>
+      <c r="H90">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C91" s="7"/>
+      <c r="D91">
+        <v>14.3</v>
+      </c>
+      <c r="G91" s="11"/>
+      <c r="H91">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C92" s="7"/>
+      <c r="D92">
+        <v>12.4</v>
+      </c>
+      <c r="G92" s="11"/>
+      <c r="H92">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C93" s="7"/>
+      <c r="D93">
+        <v>10.7</v>
+      </c>
+      <c r="G93" s="11"/>
+      <c r="H93">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C94" s="7"/>
+      <c r="D94">
+        <v>5.6</v>
+      </c>
+      <c r="G94" s="11"/>
+      <c r="H94">
+        <v>-4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C95" s="7"/>
+      <c r="D95">
+        <v>0.7</v>
+      </c>
+      <c r="G95" s="11"/>
+      <c r="H95">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C96" s="7"/>
+      <c r="D96">
+        <v>3.2</v>
+      </c>
+      <c r="G96" s="11"/>
+      <c r="H96">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C97" s="7"/>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="G97" s="11"/>
+      <c r="H97">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C98" s="7"/>
+      <c r="D98">
+        <v>-2.4</v>
+      </c>
+      <c r="G98" s="11"/>
+      <c r="H98">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C99" s="7"/>
+      <c r="D99">
+        <v>-1.9</v>
+      </c>
+      <c r="G99" s="11"/>
+      <c r="H99">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C100" s="7"/>
+      <c r="D100">
+        <v>-8.1</v>
+      </c>
+      <c r="G100" s="11"/>
+      <c r="H100">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C101" s="7"/>
+      <c r="D101">
+        <v>-8.5</v>
+      </c>
+      <c r="G101" s="11"/>
+      <c r="H101">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C102" s="7"/>
+      <c r="D102">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="G102" s="11"/>
+      <c r="H102">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C103" s="7"/>
+      <c r="D103">
+        <v>-6.9</v>
+      </c>
+      <c r="G103" s="11"/>
+      <c r="H103">
+        <v>-9.6</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C104" s="7"/>
+      <c r="D104">
+        <v>-0.5</v>
+      </c>
+      <c r="G104" s="11"/>
+      <c r="H104">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C105" s="7"/>
+      <c r="D105">
+        <v>-3.3</v>
+      </c>
+      <c r="G105" s="11"/>
+      <c r="H105">
+        <v>-4.2</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C106" s="7"/>
+      <c r="D106">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="G106" s="11"/>
+      <c r="H106">
+        <v>-6.6</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C107" s="7"/>
+      <c r="D107">
+        <v>-8.1</v>
+      </c>
+      <c r="G107" s="11"/>
+      <c r="H107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C108" s="7"/>
+      <c r="D108">
+        <v>-10</v>
+      </c>
+      <c r="G108" s="11"/>
+      <c r="H108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C109" s="10"/>
+      <c r="D109">
+        <v>-8.9</v>
+      </c>
+      <c r="G109" s="12"/>
+      <c r="H109">
+        <v>11.2</v>
       </c>
     </row>
   </sheetData>
@@ -11207,382 +11983,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF968E14-317E-41A1-A296-3499A0B462BB}">
-  <dimension ref="A1:P44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A2" s="17">
-        <v>13.9</v>
-      </c>
-      <c r="O2" s="7">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A3" s="17">
-        <v>14.4</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A4" s="17">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A5" s="17">
-        <v>3.4</v>
-      </c>
-      <c r="O5" s="7">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="7">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A9" s="17">
-        <v>1.9</v>
-      </c>
-      <c r="O9" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A10" s="17">
-        <v>3.6</v>
-      </c>
-      <c r="O10" s="7">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A11" s="17">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="O11" s="7">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A12" s="17">
-        <v>10.6</v>
-      </c>
-      <c r="O12" s="7">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A13" s="17">
-        <v>6.4</v>
-      </c>
-      <c r="O13" s="7">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A14" s="17">
-        <v>9.5</v>
-      </c>
-      <c r="O14" s="7">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A15" s="17">
-        <v>8.1</v>
-      </c>
-      <c r="O15" s="7">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A17" s="17">
-        <v>5.9</v>
-      </c>
-      <c r="O17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A18" s="17">
-        <v>10</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A19" s="17">
-        <v>3.3</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A20" s="17">
-        <v>5</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A21" s="17">
-        <v>4.2</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A22" s="17">
-        <v>4</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A23" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A24" s="17">
-        <v>7.3</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A25" s="17">
-        <v>8.4</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A26" s="17">
-        <v>9.5</v>
-      </c>
-      <c r="O26" s="7">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A27" s="17">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="O27" s="7">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A28" s="17">
-        <v>1.6</v>
-      </c>
-      <c r="O28" s="7">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A29" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="7">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A30" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A31" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="O31" s="7">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A32" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O32" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A33" s="17">
-        <v>11.9</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A34" s="17">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A35" s="17">
-        <v>10.5</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A36" s="17">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A37" s="17">
-        <v>6.1</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A38" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A39" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A40" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A41" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A42" s="17">
-        <v>15</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A43" s="17">
-        <v>12</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A44" s="18">
-        <v>11.2</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>